--- a/BaoCaoNhom/GroupInfo.xlsx
+++ b/BaoCaoNhom/GroupInfo.xlsx
@@ -43,13 +43,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,24 +414,37 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="1">
+        <v>50902316</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="1">
+        <v>50902476</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="1">
+        <v>50902263</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="1">
+        <v>50903332</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
